--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.5877201278672</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H2">
-        <v>26.5877201278672</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I2">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J2">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.93816930967866</v>
+        <v>1.261960333333333</v>
       </c>
       <c r="N2">
-        <v>2.93816930967866</v>
+        <v>3.785881</v>
       </c>
       <c r="O2">
-        <v>0.5606411046355835</v>
+        <v>0.1357066639443231</v>
       </c>
       <c r="P2">
-        <v>0.5606411046355835</v>
+        <v>0.1357066639443231</v>
       </c>
       <c r="Q2">
-        <v>78.11922329402498</v>
+        <v>35.95875919482855</v>
       </c>
       <c r="R2">
-        <v>78.11922329402498</v>
+        <v>323.6288327534569</v>
       </c>
       <c r="S2">
-        <v>0.02616019362284263</v>
+        <v>0.006549460084049109</v>
       </c>
       <c r="T2">
-        <v>0.02616019362284263</v>
+        <v>0.006549460084049109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.5877201278672</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H3">
-        <v>26.5877201278672</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I3">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J3">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.30256185574038</v>
+        <v>3.174835666666667</v>
       </c>
       <c r="N3">
-        <v>2.30256185574038</v>
+        <v>9.524507</v>
       </c>
       <c r="O3">
-        <v>0.4393588953644164</v>
+        <v>0.341410379957625</v>
       </c>
       <c r="P3">
-        <v>0.4393588953644164</v>
+        <v>0.3414103799576249</v>
       </c>
       <c r="Q3">
-        <v>61.21987019752776</v>
+        <v>90.46492841757544</v>
       </c>
       <c r="R3">
-        <v>61.21987019752776</v>
+        <v>814.1843557581789</v>
       </c>
       <c r="S3">
-        <v>0.02050101870451026</v>
+        <v>0.01647711019357088</v>
       </c>
       <c r="T3">
-        <v>0.02050101870451026</v>
+        <v>0.01647711019357088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.682838065087</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H4">
-        <v>141.682838065087</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I4">
-        <v>0.2486521205392012</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J4">
-        <v>0.2486521205392012</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.93816930967866</v>
+        <v>2.399924333333333</v>
       </c>
       <c r="N4">
-        <v>2.93816930967866</v>
+        <v>7.199773</v>
       </c>
       <c r="O4">
-        <v>0.5606411046355835</v>
+        <v>0.258079209300665</v>
       </c>
       <c r="P4">
-        <v>0.5606411046355835</v>
+        <v>0.258079209300665</v>
       </c>
       <c r="Q4">
-        <v>416.28816651101</v>
+        <v>68.38432152633122</v>
       </c>
       <c r="R4">
-        <v>416.28816651101</v>
+        <v>615.4588937369809</v>
       </c>
       <c r="S4">
-        <v>0.139404599529078</v>
+        <v>0.01245539040390189</v>
       </c>
       <c r="T4">
-        <v>0.139404599529078</v>
+        <v>0.01245539040390189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>141.682838065087</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H5">
-        <v>141.682838065087</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I5">
-        <v>0.2486521205392012</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J5">
-        <v>0.2486521205392012</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.30256185574038</v>
+        <v>2.058352</v>
       </c>
       <c r="N5">
-        <v>2.30256185574038</v>
+        <v>6.175056</v>
       </c>
       <c r="O5">
-        <v>0.4393588953644164</v>
+        <v>0.2213477521954272</v>
       </c>
       <c r="P5">
-        <v>0.4393588953644164</v>
+        <v>0.2213477521954272</v>
       </c>
       <c r="Q5">
-        <v>326.2334985417105</v>
+        <v>58.65143455871466</v>
       </c>
       <c r="R5">
-        <v>326.2334985417105</v>
+        <v>527.8629110284319</v>
       </c>
       <c r="S5">
-        <v>0.1092475210101232</v>
+        <v>0.01068266086249619</v>
       </c>
       <c r="T5">
-        <v>0.1092475210101232</v>
+        <v>0.01068266086249619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>209.786248059852</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H6">
-        <v>209.786248059852</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I6">
-        <v>0.3681729993020171</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J6">
-        <v>0.3681729993020171</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.93816930967866</v>
+        <v>0.404105</v>
       </c>
       <c r="N6">
-        <v>2.93816930967866</v>
+        <v>1.212315</v>
       </c>
       <c r="O6">
-        <v>0.5606411046355835</v>
+        <v>0.04345599460195977</v>
       </c>
       <c r="P6">
-        <v>0.5606411046355835</v>
+        <v>0.04345599460195977</v>
       </c>
       <c r="Q6">
-        <v>616.3875156420914</v>
+        <v>11.51471563772833</v>
       </c>
       <c r="R6">
-        <v>616.3875156420914</v>
+        <v>103.632440739555</v>
       </c>
       <c r="S6">
-        <v>0.2064129170256788</v>
+        <v>0.002097268430199997</v>
       </c>
       <c r="T6">
-        <v>0.2064129170256788</v>
+        <v>0.002097268430199997</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>209.786248059852</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H7">
-        <v>209.786248059852</v>
+        <v>426.244309</v>
       </c>
       <c r="I7">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J7">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.30256185574038</v>
+        <v>1.261960333333333</v>
       </c>
       <c r="N7">
-        <v>2.30256185574038</v>
+        <v>3.785881</v>
       </c>
       <c r="O7">
-        <v>0.4393588953644164</v>
+        <v>0.1357066639443231</v>
       </c>
       <c r="P7">
-        <v>0.4393588953644164</v>
+        <v>0.1357066639443231</v>
       </c>
       <c r="Q7">
-        <v>483.0458126415045</v>
+        <v>179.3011367556921</v>
       </c>
       <c r="R7">
-        <v>483.0458126415045</v>
+        <v>1613.710230801229</v>
       </c>
       <c r="S7">
-        <v>0.1617600822763383</v>
+        <v>0.03265756840616801</v>
       </c>
       <c r="T7">
-        <v>0.1617600822763383</v>
+        <v>0.03265756840616801</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>127.549377663799</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H8">
-        <v>127.549377663799</v>
+        <v>426.244309</v>
       </c>
       <c r="I8">
-        <v>0.2238480232516901</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J8">
-        <v>0.2238480232516901</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.93816930967866</v>
+        <v>3.174835666666667</v>
       </c>
       <c r="N8">
-        <v>2.93816930967866</v>
+        <v>9.524507</v>
       </c>
       <c r="O8">
-        <v>0.5606411046355835</v>
+        <v>0.341410379957625</v>
       </c>
       <c r="P8">
-        <v>0.5606411046355835</v>
+        <v>0.3414103799576249</v>
       </c>
       <c r="Q8">
-        <v>374.761666920387</v>
+        <v>451.085211642296</v>
       </c>
       <c r="R8">
-        <v>374.761666920387</v>
+        <v>4059.766904780663</v>
       </c>
       <c r="S8">
-        <v>0.1254984030263193</v>
+        <v>0.08215980346120917</v>
       </c>
       <c r="T8">
-        <v>0.1254984030263193</v>
+        <v>0.08215980346120916</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>127.549377663799</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H9">
-        <v>127.549377663799</v>
+        <v>426.244309</v>
       </c>
       <c r="I9">
-        <v>0.2238480232516901</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J9">
-        <v>0.2238480232516901</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.30256185574038</v>
+        <v>2.399924333333333</v>
       </c>
       <c r="N9">
-        <v>2.30256185574038</v>
+        <v>7.199773</v>
       </c>
       <c r="O9">
-        <v>0.4393588953644164</v>
+        <v>0.258079209300665</v>
       </c>
       <c r="P9">
-        <v>0.4393588953644164</v>
+        <v>0.258079209300665</v>
       </c>
       <c r="Q9">
-        <v>293.6903317320877</v>
+        <v>340.9846963713175</v>
       </c>
       <c r="R9">
-        <v>293.6903317320877</v>
+        <v>3068.862267341858</v>
       </c>
       <c r="S9">
-        <v>0.09834962022537079</v>
+        <v>0.06210630478252788</v>
       </c>
       <c r="T9">
-        <v>0.09834962022537079</v>
+        <v>0.06210630478252788</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.19727385342431</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H10">
-        <v>64.19727385342431</v>
+        <v>426.244309</v>
       </c>
       <c r="I10">
-        <v>0.1126656445797387</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J10">
-        <v>0.1126656445797387</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.93816930967866</v>
+        <v>2.058352</v>
       </c>
       <c r="N10">
-        <v>2.93816930967866</v>
+        <v>6.175056</v>
       </c>
       <c r="O10">
-        <v>0.5606411046355835</v>
+        <v>0.2213477521954272</v>
       </c>
       <c r="P10">
-        <v>0.5606411046355835</v>
+        <v>0.2213477521954272</v>
       </c>
       <c r="Q10">
-        <v>188.6224598011676</v>
+        <v>292.4536086395893</v>
       </c>
       <c r="R10">
-        <v>188.6224598011676</v>
+        <v>2632.082477756304</v>
       </c>
       <c r="S10">
-        <v>0.06316499143166476</v>
+        <v>0.05326694466411336</v>
       </c>
       <c r="T10">
-        <v>0.06316499143166476</v>
+        <v>0.05326694466411337</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>142.0814363333334</v>
+      </c>
+      <c r="H11">
+        <v>426.244309</v>
+      </c>
+      <c r="I11">
+        <v>0.2406482294750577</v>
+      </c>
+      <c r="J11">
+        <v>0.2406482294750577</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.404105</v>
+      </c>
+      <c r="N11">
+        <v>1.212315</v>
+      </c>
+      <c r="O11">
+        <v>0.04345599460195977</v>
+      </c>
+      <c r="P11">
+        <v>0.04345599460195977</v>
+      </c>
+      <c r="Q11">
+        <v>57.41581882948167</v>
+      </c>
+      <c r="R11">
+        <v>516.7423694653351</v>
+      </c>
+      <c r="S11">
+        <v>0.01045760816103928</v>
+      </c>
+      <c r="T11">
+        <v>0.01045760816103928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>64.19727385342431</v>
-      </c>
-      <c r="H11">
-        <v>64.19727385342431</v>
-      </c>
-      <c r="I11">
-        <v>0.1126656445797387</v>
-      </c>
-      <c r="J11">
-        <v>0.1126656445797387</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.30256185574038</v>
-      </c>
-      <c r="N11">
-        <v>2.30256185574038</v>
-      </c>
-      <c r="O11">
-        <v>0.4393588953644164</v>
-      </c>
-      <c r="P11">
-        <v>0.4393588953644164</v>
-      </c>
-      <c r="Q11">
-        <v>147.8181940174141</v>
-      </c>
-      <c r="R11">
-        <v>147.8181940174141</v>
-      </c>
-      <c r="S11">
-        <v>0.04950065314807395</v>
-      </c>
-      <c r="T11">
-        <v>0.04950065314807395</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>209.9177196666667</v>
+      </c>
+      <c r="H12">
+        <v>629.753159</v>
+      </c>
+      <c r="I12">
+        <v>0.3555448824061003</v>
+      </c>
+      <c r="J12">
+        <v>0.3555448824061003</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.261960333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.785881</v>
+      </c>
+      <c r="O12">
+        <v>0.1357066639443231</v>
+      </c>
+      <c r="P12">
+        <v>0.1357066639443231</v>
+      </c>
+      <c r="Q12">
+        <v>264.9078354831199</v>
+      </c>
+      <c r="R12">
+        <v>2384.170519348079</v>
+      </c>
+      <c r="S12">
+        <v>0.04824980987380853</v>
+      </c>
+      <c r="T12">
+        <v>0.04824980987380852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>209.9177196666667</v>
+      </c>
+      <c r="H13">
+        <v>629.753159</v>
+      </c>
+      <c r="I13">
+        <v>0.3555448824061003</v>
+      </c>
+      <c r="J13">
+        <v>0.3555448824061003</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.174835666666667</v>
+      </c>
+      <c r="N13">
+        <v>9.524507</v>
+      </c>
+      <c r="O13">
+        <v>0.341410379957625</v>
+      </c>
+      <c r="P13">
+        <v>0.3414103799576249</v>
+      </c>
+      <c r="Q13">
+        <v>666.4542634630681</v>
+      </c>
+      <c r="R13">
+        <v>5998.088371167612</v>
+      </c>
+      <c r="S13">
+        <v>0.1213867133942558</v>
+      </c>
+      <c r="T13">
+        <v>0.1213867133942558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>209.9177196666667</v>
+      </c>
+      <c r="H14">
+        <v>629.753159</v>
+      </c>
+      <c r="I14">
+        <v>0.3555448824061003</v>
+      </c>
+      <c r="J14">
+        <v>0.3555448824061003</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.399924333333333</v>
+      </c>
+      <c r="N14">
+        <v>7.199773</v>
+      </c>
+      <c r="O14">
+        <v>0.258079209300665</v>
+      </c>
+      <c r="P14">
+        <v>0.258079209300665</v>
+      </c>
+      <c r="Q14">
+        <v>503.7866434258785</v>
+      </c>
+      <c r="R14">
+        <v>4534.079790832907</v>
+      </c>
+      <c r="S14">
+        <v>0.09175874212226429</v>
+      </c>
+      <c r="T14">
+        <v>0.09175874212226429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>209.9177196666667</v>
+      </c>
+      <c r="H15">
+        <v>629.753159</v>
+      </c>
+      <c r="I15">
+        <v>0.3555448824061003</v>
+      </c>
+      <c r="J15">
+        <v>0.3555448824061003</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>2.058352</v>
+      </c>
+      <c r="N15">
+        <v>6.175056</v>
+      </c>
+      <c r="O15">
+        <v>0.2213477521954272</v>
+      </c>
+      <c r="P15">
+        <v>0.2213477521954272</v>
+      </c>
+      <c r="Q15">
+        <v>432.0845581113226</v>
+      </c>
+      <c r="R15">
+        <v>3888.761023001904</v>
+      </c>
+      <c r="S15">
+        <v>0.07869906052517778</v>
+      </c>
+      <c r="T15">
+        <v>0.07869906052517778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>209.9177196666667</v>
+      </c>
+      <c r="H16">
+        <v>629.753159</v>
+      </c>
+      <c r="I16">
+        <v>0.3555448824061003</v>
+      </c>
+      <c r="J16">
+        <v>0.3555448824061003</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.404105</v>
+      </c>
+      <c r="N16">
+        <v>1.212315</v>
+      </c>
+      <c r="O16">
+        <v>0.04345599460195977</v>
+      </c>
+      <c r="P16">
+        <v>0.04345599460195977</v>
+      </c>
+      <c r="Q16">
+        <v>84.82880010589834</v>
+      </c>
+      <c r="R16">
+        <v>763.459200953085</v>
+      </c>
+      <c r="S16">
+        <v>0.01545055649059392</v>
+      </c>
+      <c r="T16">
+        <v>0.01545055649059392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>132.271009</v>
+      </c>
+      <c r="H17">
+        <v>396.813027</v>
+      </c>
+      <c r="I17">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J17">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>1.261960333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.785881</v>
+      </c>
+      <c r="O17">
+        <v>0.1357066639443231</v>
+      </c>
+      <c r="P17">
+        <v>0.1357066639443231</v>
+      </c>
+      <c r="Q17">
+        <v>166.9207666079764</v>
+      </c>
+      <c r="R17">
+        <v>1502.286899471787</v>
+      </c>
+      <c r="S17">
+        <v>0.03040263130811934</v>
+      </c>
+      <c r="T17">
+        <v>0.03040263130811933</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>132.271009</v>
+      </c>
+      <c r="H18">
+        <v>396.813027</v>
+      </c>
+      <c r="I18">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J18">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.174835666666667</v>
+      </c>
+      <c r="N18">
+        <v>9.524507</v>
+      </c>
+      <c r="O18">
+        <v>0.341410379957625</v>
+      </c>
+      <c r="P18">
+        <v>0.3414103799576249</v>
+      </c>
+      <c r="Q18">
+        <v>419.9387170391877</v>
+      </c>
+      <c r="R18">
+        <v>3779.448453352689</v>
+      </c>
+      <c r="S18">
+        <v>0.07648684010738895</v>
+      </c>
+      <c r="T18">
+        <v>0.07648684010738893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>132.271009</v>
+      </c>
+      <c r="H19">
+        <v>396.813027</v>
+      </c>
+      <c r="I19">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J19">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.399924333333333</v>
+      </c>
+      <c r="N19">
+        <v>7.199773</v>
+      </c>
+      <c r="O19">
+        <v>0.258079209300665</v>
+      </c>
+      <c r="P19">
+        <v>0.258079209300665</v>
+      </c>
+      <c r="Q19">
+        <v>317.4404130936524</v>
+      </c>
+      <c r="R19">
+        <v>2856.963717842872</v>
+      </c>
+      <c r="S19">
+        <v>0.05781799375657932</v>
+      </c>
+      <c r="T19">
+        <v>0.05781799375657932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>132.271009</v>
+      </c>
+      <c r="H20">
+        <v>396.813027</v>
+      </c>
+      <c r="I20">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J20">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>2.058352</v>
+      </c>
+      <c r="N20">
+        <v>6.175056</v>
+      </c>
+      <c r="O20">
+        <v>0.2213477521954272</v>
+      </c>
+      <c r="P20">
+        <v>0.2213477521954272</v>
+      </c>
+      <c r="Q20">
+        <v>272.260295917168</v>
+      </c>
+      <c r="R20">
+        <v>2450.342663254512</v>
+      </c>
+      <c r="S20">
+        <v>0.0495889730488069</v>
+      </c>
+      <c r="T20">
+        <v>0.0495889730488069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>132.271009</v>
+      </c>
+      <c r="H21">
+        <v>396.813027</v>
+      </c>
+      <c r="I21">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J21">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.404105</v>
+      </c>
+      <c r="N21">
+        <v>1.212315</v>
+      </c>
+      <c r="O21">
+        <v>0.04345599460195977</v>
+      </c>
+      <c r="P21">
+        <v>0.04345599460195977</v>
+      </c>
+      <c r="Q21">
+        <v>53.45137609194501</v>
+      </c>
+      <c r="R21">
+        <v>481.0623848275051</v>
+      </c>
+      <c r="S21">
+        <v>0.009735532092610065</v>
+      </c>
+      <c r="T21">
+        <v>0.009735532092610065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>77.646779</v>
+      </c>
+      <c r="H22">
+        <v>232.940337</v>
+      </c>
+      <c r="I22">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J22">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>1.261960333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.785881</v>
+      </c>
+      <c r="O22">
+        <v>0.1357066639443231</v>
+      </c>
+      <c r="P22">
+        <v>0.1357066639443231</v>
+      </c>
+      <c r="Q22">
+        <v>97.98715510909966</v>
+      </c>
+      <c r="R22">
+        <v>881.884395981897</v>
+      </c>
+      <c r="S22">
+        <v>0.01784719427217813</v>
+      </c>
+      <c r="T22">
+        <v>0.01784719427217813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>77.646779</v>
+      </c>
+      <c r="H23">
+        <v>232.940337</v>
+      </c>
+      <c r="I23">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J23">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.174835666666667</v>
+      </c>
+      <c r="N23">
+        <v>9.524507</v>
+      </c>
+      <c r="O23">
+        <v>0.341410379957625</v>
+      </c>
+      <c r="P23">
+        <v>0.3414103799576249</v>
+      </c>
+      <c r="Q23">
+        <v>246.5157633709843</v>
+      </c>
+      <c r="R23">
+        <v>2218.641870338859</v>
+      </c>
+      <c r="S23">
+        <v>0.04489991280120018</v>
+      </c>
+      <c r="T23">
+        <v>0.04489991280120018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>77.646779</v>
+      </c>
+      <c r="H24">
+        <v>232.940337</v>
+      </c>
+      <c r="I24">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J24">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.399924333333333</v>
+      </c>
+      <c r="N24">
+        <v>7.199773</v>
+      </c>
+      <c r="O24">
+        <v>0.258079209300665</v>
+      </c>
+      <c r="P24">
+        <v>0.258079209300665</v>
+      </c>
+      <c r="Q24">
+        <v>186.3463943270557</v>
+      </c>
+      <c r="R24">
+        <v>1677.117548943501</v>
+      </c>
+      <c r="S24">
+        <v>0.03394077823539165</v>
+      </c>
+      <c r="T24">
+        <v>0.03394077823539166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>77.646779</v>
+      </c>
+      <c r="H25">
+        <v>232.940337</v>
+      </c>
+      <c r="I25">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J25">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>2.058352</v>
+      </c>
+      <c r="N25">
+        <v>6.175056</v>
+      </c>
+      <c r="O25">
+        <v>0.2213477521954272</v>
+      </c>
+      <c r="P25">
+        <v>0.2213477521954272</v>
+      </c>
+      <c r="Q25">
+        <v>159.824402848208</v>
+      </c>
+      <c r="R25">
+        <v>1438.419625633872</v>
+      </c>
+      <c r="S25">
+        <v>0.02911011309483293</v>
+      </c>
+      <c r="T25">
+        <v>0.02911011309483294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>77.646779</v>
+      </c>
+      <c r="H26">
+        <v>232.940337</v>
+      </c>
+      <c r="I26">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J26">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.404105</v>
+      </c>
+      <c r="N26">
+        <v>1.212315</v>
+      </c>
+      <c r="O26">
+        <v>0.04345599460195977</v>
+      </c>
+      <c r="P26">
+        <v>0.04345599460195977</v>
+      </c>
+      <c r="Q26">
+        <v>31.377451627795</v>
+      </c>
+      <c r="R26">
+        <v>282.397064650155</v>
+      </c>
+      <c r="S26">
+        <v>0.00571502942751651</v>
+      </c>
+      <c r="T26">
+        <v>0.005715029427516511</v>
       </c>
     </row>
   </sheetData>
